--- a/biology/Botanique/Liste_de_plantes_endémiques_de_Tunisie/Liste_de_plantes_endémiques_de_Tunisie.xlsx
+++ b/biology/Botanique/Liste_de_plantes_endémiques_de_Tunisie/Liste_de_plantes_endémiques_de_Tunisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Tunisie</t>
+          <t>Liste_de_plantes_endémiques_de_Tunisie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste de plantes endémiques de Tunisie comprend 26 espèces et treize sous-espèces. Une plante est dite endémique de Tunisie lorsqu'elle n'est présente à l'état indigène que dans ce pays. Ne sont listées ici que des endémiques tunisiennes strictes, alors que certaines statistiques[1] incluent des endémiques tuniso-algériennes, tuniso-libyennes, tuniso-italiennes, etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste de plantes endémiques de Tunisie comprend 26 espèces et treize sous-espèces. Une plante est dite endémique de Tunisie lorsqu'elle n'est présente à l'état indigène que dans ce pays. Ne sont listées ici que des endémiques tunisiennes strictes, alors que certaines statistiques incluent des endémiques tuniso-algériennes, tuniso-libyennes, tuniso-italiennes, etc.
 La liste a été établie à partir des références suivantes :
 les plantes endémiques de la Tunisie de Neffati et al. 1999 ;
 le catalogue synonymique de la flore de Tunisie de Le Floc'h, Boulos et Véla 2010 ;
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Tunisie</t>
+          <t>Liste_de_plantes_endémiques_de_Tunisie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,62 +528,64 @@
           <t>Espèces endémiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Arabis tunetana[2] Murb.
-Pentes herbeuses des montagnes de la dorsale tunisienne[3] : Djebel Zaghouan, Djebel Bargou, Djebel Serj et Djebel Kessera.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arabis tunetana Murb.
+Pentes herbeuses des montagnes de la dorsale tunisienne : Djebel Zaghouan, Djebel Bargou, Djebel Serj et Djebel Kessera.
 Bellevalia galitensis Bocchieri &amp; Mossa
-Îles de La Galite[4].
+Îles de La Galite.
 Clematis tunisiatica W. T. Wang
-Aïn Draham[5].
-Ferula tunetana Pomel ex Batt[6]
-Bords des champs et lieux sablonneux salés[7] : El Jem, Aïn Cherichera, entre Kairouan et l'oued Bayla, et Chebba dans le Centre ; bord nord du chott el-Fejaj, Matmata et Moularès dans le Sud.
-Galium olivetorum Le Houér[8]
-Très commune dans les olivettes de Zarzis sur sol sablonneux profond[9].
+Aïn Draham.
+Ferula tunetana Pomel ex Batt
+Bords des champs et lieux sablonneux salés : El Jem, Aïn Cherichera, entre Kairouan et l'oued Bayla, et Chebba dans le Centre ; bord nord du chott el-Fejaj, Matmata et Moularès dans le Sud.
+Galium olivetorum Le Houér
+Très commune dans les olivettes de Zarzis sur sol sablonneux profond.
 Lathyrus brachyodon Murb.
-Kroumirie[10]: Aïn Draham et Djebel Bir.
-Limonium boitardii Maire[11]
-Terrains plus ou moins salés du Nord-Est[12] : Bizerte et base du Djebel Ichkeul.
-Limonium elfahsianum Brullo &amp; Giusso[13]
-Collines marneuses d'El Fahs et Testour[14].
-Limonium formosum Bartolo, Brullo &amp; Giusso[15]
-Frange côtière de l'île de Djerba sur sols sableux recouvrant des sables indurés[14].
+Kroumirie: Aïn Draham et Djebel Bir.
+Limonium boitardii Maire
+Terrains plus ou moins salés du Nord-Est : Bizerte et base du Djebel Ichkeul.
+Limonium elfahsianum Brullo &amp; Giusso
+Collines marneuses d'El Fahs et Testour.
+Limonium formosum Bartolo, Brullo &amp; Giusso
+Frange côtière de l'île de Djerba sur sols sableux recouvrant des sables indurés.
 Limonium zembrae Pignatti.
-Île de Zembra[16].
+Île de Zembra.
 Linaria paradoxa Murb.
-Champs argileux[17] près de Kairouan, Menzel Mehiri et Gabès.
+Champs argileux près de Kairouan, Menzel Mehiri et Gabès.
 Lomelosia robertii (Barratte) Greuter &amp; Burdet
-Remplaçant Scabiosa crenata subsp. robertii (Barratte) Pott.-Alap[18].
+Remplaçant Scabiosa crenata subsp. robertii (Barratte) Pott.-Alap.
 Dorsale tunisienne : entre les ruines de Thélepte et Fériana
 Marrubium aschersonii P. Magnus
-Décombres, lieux sablonneux et humides[19] : entre Aïn Ouled Sebaa et Tabarka en Kroumirie ; Menzel Jemil et Hammam Lif dans le Nord-Est ; Sousse, Sfax et Sidi Bouzid dans le Centre ; Djerba et Matmata dans le Sud.
+Décombres, lieux sablonneux et humides : entre Aïn Ouled Sebaa et Tabarka en Kroumirie ; Menzel Jemil et Hammam Lif dans le Nord-Est ; Sousse, Sfax et Sidi Bouzid dans le Centre ; Djerba et Matmata dans le Sud.
 Odontites citrinus Bolliger
-Cap Blanc[20].
+Cap Blanc.
 Poa lehoueroui Dobignard &amp; Portal
 Steppe sablonneuse près de Redeyef.
 Rostraria litorea (All.) Holub
-= Koeleria pubescens var. mucronata (Trab.) Maire = Koeleria mucronata Trab[21]
-Dunes et sables littoraux dans le Nord-Est[22] (Bizerte, île Plane et Cani) et dans le Cap Bon (Hammamet et Soliman).
-Rumex tunetanus Barratte &amp; Murb[23]
+= Koeleria pubescens var. mucronata (Trab.) Maire = Koeleria mucronata Trab
+Dunes et sables littoraux dans le Nord-Est (Bizerte, île Plane et Cani) et dans le Cap Bon (Hammamet et Soliman).
+Rumex tunetanus Barratte &amp; Murb
 En danger critique d'extinction.
 Bords de la Garâa Sejnane.
 Silene barrattei Murb.
-Sables généralement maritimes[24] : Bizerte dans le Nord-Est ; Zembra, Grombalia, Mraïssa et Hammamet  au Cap Bon ; Hergla, Sousse, Sbeïtla dans le Centre ; Gafsa dans le Sud.
+Sables généralement maritimes : Bizerte dans le Nord-Est ; Zembra, Grombalia, Mraïssa et Hammamet  au Cap Bon ; Hergla, Sousse, Sbeïtla dans le Centre ; Gafsa dans le Sud.
 Sixalix thysdrusiana (Le Houér.) Greuter &amp; Burdet
 Remplaçant Scabiosa atropurpurea subsp. thysdrusiana (Le Houér.) Pott.-Alap.
-Croûtes gypseuses[25] du Sahel : El Jem, Kerker, El Hencha, Agareb, etc.
+Croûtes gypseuses du Sahel : El Jem, Kerker, El Hencha, Agareb, etc.
 Teucrium alopecurus de Noé
 Steppes rocailleuses du Sud tunisien : Matmata, Ghomrassen, Tataouine, Douiret, etc.
 Teucrium nablii S. Puech
-Djebel Bou Hedma au Sud de Meknassy[26].
+Djebel Bou Hedma au Sud de Meknassy.
 Teucrium radicans Bonnet &amp; Barratte
-Coteaux pierreux et broussailleux[27] près d'Amoïza et Bellif, au nord-est du cap Negro.
-Teucrium sauvagei Le Houér[28]
+Coteaux pierreux et broussailleux près d'Amoïza et Bellif, au nord-est du cap Negro.
+Teucrium sauvagei Le Houér
 Plante très commune dans les steppes sablonneuses du Centre et du Sud : Sidi Bouzid, Sfax, Gafsa, Gabès, Tataouine, Ben Gardane, Remada, etc.
 Teucrium schoenenbergeri Nabli
-Djebel Ichkeul[29].
+Djebel Ichkeul.
 Thymelaea sempervirens Murb.
-Rochers calcaires des ravins arides[30] entre Ksar Sakkel et Bir Saad.</t>
+Rochers calcaires des ravins arides entre Ksar Sakkel et Bir Saad.</t>
         </is>
       </c>
     </row>
@@ -581,7 +595,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Tunisie</t>
+          <t>Liste_de_plantes_endémiques_de_Tunisie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -599,38 +613,40 @@
           <t>Sous-espèces endémiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Artemisia campestris subsp. cinerea Le Houér[31].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Artemisia campestris subsp. cinerea Le Houér.
 Dianthus cintranus subsp. byzacenus (Burollet) Greuter &amp; Burdet
 Remplaçant Dianthus gaditanus subsp. byzacenus (Burollet) Maire
-Répandu dans les pâturages rocailleux et surtout montagneux[32] : Hammam Sousse, Sidi El Hani, Zéramdine, Sidi Bouzid, Hajeb El Ayoun, Fériana et Sbeïtla dans le Centre ; Djebel Kessera, Djebel Mrhila et Djebel Chambi dans la dorsale tunisienne ; Djebel El Attig et Matmata dans le Sud.
+Répandu dans les pâturages rocailleux et surtout montagneux : Hammam Sousse, Sidi El Hani, Zéramdine, Sidi Bouzid, Hajeb El Ayoun, Fériana et Sbeïtla dans le Centre ; Djebel Kessera, Djebel Mrhila et Djebel Chambi dans la dorsale tunisienne ; Djebel El Attig et Matmata dans le Sud.
 Dianthus rupicola subsp. hermaeensis (Coss.) O. Bolòs &amp; Vigo
 Synonyme de la variété Dianthus rupicola var. hermaeensis (Coss.) F. N. Williams
 Helianthemum crassifolium subsp. djeniense Le Houér.
 Dans l'extrême Sud tunisien : Djeneien et Merazigue.
 Helianthemum virgatum subsp. africanum (Murb.) Dobignard
 Helianthemum semiglabrum var. africanum Murb
-Pâturages rocailleux[33] de la dorsale tunisienne : Djebel Serj, Makthar, Kesra, Jérissa et Kalaa el Harrat.
+Pâturages rocailleux de la dorsale tunisienne : Djebel Serj, Makthar, Kesra, Jérissa et Kalaa el Harrat.
 Hypericum ericoides subsp. robertii (Batt.) Maire &amp; Wilczek
-Dans les fissures des rochers[34] : entre Fériana et Thélepte dans le Centre ; Djebel Chambi, Djebel Khcham El Kalb, Djebel Semmama et Djebel Atra dans la dorsale tunisienne.
+Dans les fissures des rochers : entre Fériana et Thélepte dans le Centre ; Djebel Chambi, Djebel Khcham El Kalb, Djebel Semmama et Djebel Atra dans la dorsale tunisienne.
 Linaria reflexa subsp. doumetii (Bonnet &amp; Barratte) D. A. Sutton
 Linaria reflexa var. doumetii Bonnet &amp; Barratte (1896)
-Djebel Zaghouan[35].
+Djebel Zaghouan.
 Linaria virgata subsp. tunetana Murb.
-Dans les champs ou au bord des chemins[36] de la dorsale tunisienne : Kalaa el Harrat, Makthar et Souk el Jemaa.
+Dans les champs ou au bord des chemins de la dorsale tunisienne : Kalaa el Harrat, Makthar et Souk el Jemaa.
 Ophrys atlantica subsp hayekii (Fleishmann &amp; Soó) Soó
-Ce taxon semble éteint[37], puisqu'il n'a pas été revu dans l'unique station tunisienne connue dans le Djebel Boukornine.
+Ce taxon semble éteint, puisqu'il n'a pas été revu dans l'unique station tunisienne connue dans le Djebel Boukornine.
 Sideritis incana subsp. tunetana Murb.
-Pelouses arides et pinèdes claires[38] : Djebel Chambi, Djebel Serj et Djebel Bireno dans la dorsale tunisienne ; Sidi Bouzid dans le Centre ; Métlaoui dans le Sud.
+Pelouses arides et pinèdes claires : Djebel Chambi, Djebel Serj et Djebel Bireno dans la dorsale tunisienne ; Sidi Bouzid dans le Centre ; Métlaoui dans le Sud.
 Stipa lagascae subsp. letourneuxii (Trab.) Maire
-Stipa letourneuxii Trab. (basionyme)[39]
-Dans les steppes et pâturages pierreux[40] de la dorsale tunisienne, entre Kanguet Douara et Fériana.
+Stipa letourneuxii Trab. (basionyme)
+Dans les steppes et pâturages pierreux de la dorsale tunisienne, entre Kanguet Douara et Fériana.
 Teucrium luteum subsp. gabesianum (S. Puech) Greuter &amp; Burdet
-Bordj Toual au Sud-Ouest de Gabès et dans les Kerkennah[41]
+Bordj Toual au Sud-Ouest de Gabès et dans les Kerkennah
 Trifolium squarrosum subsp. tunetanum (Murb.) Maire
 Trifolium tunetanum Murb.
-Dans les coteaux calcaires[42] au Sud-Est du Kef.</t>
+Dans les coteaux calcaires au Sud-Est du Kef.</t>
         </is>
       </c>
     </row>
@@ -640,7 +656,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Tunisie</t>
+          <t>Liste_de_plantes_endémiques_de_Tunisie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -658,11 +674,13 @@
           <t>Plantes pour lesquelles un doute existe quant à l'endémisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bellevalia mauritanica var. tunetana Batt[43]. n'est pas reconnue comme sous-espèce par les auteurs de la Base de données des plantes d'Afrique[44]. Jules-Aimé Battandier[45] distinguait cette variété de l'espèce par la longueur des pédicelles et la couleur blanche des fleurs.
-Centaurea nicaeensis var. kroumirensis (Coss.) Batt., donné comme endémique par Oualidi et al. 2012, est rejeté par la Base de données des plantes d'Afrique[46] au profit de Centaurea sicula subsp. kroumirensis (Coss.) Dobignard. Ce taxon est lui-même repris comme endémique par Oualidi et al. 2012 mais la Base de données des plantes d'Afrique[47] mentionne une présence possible en Algérie. Battandier et Louis Charles Trabut, dans leur Flore de l'Algérie[48], écrivaient déjà que Centaurea kroumirensis Coss., le basionyme, devait être présent dans l'Est de l'Algérie.
-Elaeoselinum tunetanum Brullo &amp; al. est donné comme endémique par Oualidi et al. 2012 mais Le Floc'h, Boulos et Véla 2010[49] doutaient de la réalité du taxon.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bellevalia mauritanica var. tunetana Batt. n'est pas reconnue comme sous-espèce par les auteurs de la Base de données des plantes d'Afrique. Jules-Aimé Battandier distinguait cette variété de l'espèce par la longueur des pédicelles et la couleur blanche des fleurs.
+Centaurea nicaeensis var. kroumirensis (Coss.) Batt., donné comme endémique par Oualidi et al. 2012, est rejeté par la Base de données des plantes d'Afrique au profit de Centaurea sicula subsp. kroumirensis (Coss.) Dobignard. Ce taxon est lui-même repris comme endémique par Oualidi et al. 2012 mais la Base de données des plantes d'Afrique mentionne une présence possible en Algérie. Battandier et Louis Charles Trabut, dans leur Flore de l'Algérie, écrivaient déjà que Centaurea kroumirensis Coss., le basionyme, devait être présent dans l'Est de l'Algérie.
+Elaeoselinum tunetanum Brullo &amp; al. est donné comme endémique par Oualidi et al. 2012 mais Le Floc'h, Boulos et Véla 2010 doutaient de la réalité du taxon.
 Le Floc'h, Boulos et Véla 2010 pensent que les Limonium suivants sont de fait, ou très probablement, des micro-espèces ou des écomorphes d'espèces déjà décrites et morphologiquement très variables.
 Limonium cercinense Brullo &amp; Erben
 Limonium clupeanum Brullo &amp; Erben
@@ -683,8 +701,8 @@
 Limonium tritonianum Brullo &amp; Erben
 Limonium xerophilum Brullo &amp; Erben
 Limonium zeugitanum Brullo &amp; Erben
-Oncostema maireana Brullo, Giusso &amp; Terrasi n'est pas validé par Le Floc'h, Boulos et Véla 2010[50], qui souhaitent des précisions taxonomiques.
-Pancratium foetidum var. tunetanum Batt. (1919) est considérée comme une variété par Le Floc'h, Boulos et Véla 2010 mais pas dans la Base de données des plantes d'Afrique[51].</t>
+Oncostema maireana Brullo, Giusso &amp; Terrasi n'est pas validé par Le Floc'h, Boulos et Véla 2010, qui souhaitent des précisions taxonomiques.
+Pancratium foetidum var. tunetanum Batt. (1919) est considérée comme une variété par Le Floc'h, Boulos et Véla 2010 mais pas dans la Base de données des plantes d'Afrique.</t>
         </is>
       </c>
     </row>
@@ -694,7 +712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Tunisie</t>
+          <t>Liste_de_plantes_endémiques_de_Tunisie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -712,32 +730,34 @@
           <t>Plantes n'étant plus considérées comme endémiques tunisiennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Quelques plantes mentionnées dans la liste de Neffati et al. 1999 ou Oualidi et al. 2012 ne sont plus considérées comme endémiques tunisiennes selon la Base de données des plantes d'Afrique[52] ou selon leur type.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Quelques plantes mentionnées dans la liste de Neffati et al. 1999 ou Oualidi et al. 2012 ne sont plus considérées comme endémiques tunisiennes selon la Base de données des plantes d'Afrique ou selon leur type.
 Agrostis tibestica Miré &amp; Quézel, non mentionné dans Le Floc'h, Boulos et Véla 2010 et son type a été récolté au Tchad.
 Astragalus cruciatus subsp. aristidis (Coss.) Batt., élevée au rang d'espèce Astragalus saharae Pomel, est également présente au Maroc et en Algérie.
 Calendula suffruticosa subsp. tunetana (Cuenod) Pott.-Alap., remplacée par Calendula suffruticosa Vahl, est également présente au Maroc et en Algérie.
 Calligonum arich Le Houér. est également présente en Libye.
-Crepis juvenalis (Delile) F. W. Schultz est présente également à Tenerife[53].
+Crepis juvenalis (Delile) F. W. Schultz est présente également à Tenerife.
 Galactites mutabilis est également présente en Algérie.
-Galium columellum Ehrenb. ex Boiss. (1875) est rejeté au profit de Valantia lanata Delile ex Coss., espèce également présente en Libye et en Égypte[54].
+Galium columellum Ehrenb. ex Boiss. (1875) est rejeté au profit de Valantia lanata Delile ex Coss., espèce également présente en Libye et en Égypte.
 Genista capitellata Coss. = Genista capitellata var. tunetana (Coss.) Bonnet &amp; Baratte (1914) est également présente ailleurs en Afrique du Nord.
-Helianthemum gonzalezferreri A. Marrero est également présente à Lanzarote[53] et sa présence en Tunisie doit de toute façon être sourcée.
+Helianthemum gonzalezferreri A. Marrero est également présente à Lanzarote et sa présence en Tunisie doit de toute façon être sourcée.
 Hippocrepis brevipetala (Murb.) E. Domínguez = Hippocrepis minor subsp. brevipetala (Murb.) Maire est également présente en Algérie.
-Limonium rubescens Brullo &amp; Erben est également présent en Tripolitaine (Libye) et dans l'Est de l'Algérie, dans les milieux salés et secs ou temporairement submergés[55].
-Linaria virgata (Poir.) Desf. subsp. tunetana Murb., puisque le type[56] a été récolté en Libye.
+Limonium rubescens Brullo &amp; Erben est également présent en Tripolitaine (Libye) et dans l'Est de l'Algérie, dans les milieux salés et secs ou temporairement submergés.
+Linaria virgata (Poir.) Desf. subsp. tunetana Murb., puisque le type a été récolté en Libye.
 Misopates microcarpum (Pomel) D. A. Sutton, synonyme valide de Antirrhinum orontium var. microcarpum (Pomel) Bonnet &amp; Barratte (1896) est également présente au Maroc, en Algérie, en Égypte et en Somalie.
 Ononis angustissima subsp. filifolia Murb. = Ononis natrix subsp. filifolia (Murb.) Sirj. est également présente en Algérie.
 Onopordum nervosum subsp. platylepis Murb. est remplacée par Onopordum platylepis (Murb.) Murb., également présente en Algérie et en Libye.
-Ophrys carpitana M. R. Lowe, Gügel &amp; Kreutz est rejeté par la Base de données des plantes d'Afrique[57] au profit de Ophrys flammeola P. Delforge, également présente en Sicile[58].
-Ophrys obaesa Lojac. est rejetée au profit de Ophrys funerea Viv., présente également en Corse[59].
-Plantago tunetana Murb. est une endémique tuniso-algérienne selon Pierre Quézel et Sébastien Santa[60].
+Ophrys carpitana M. R. Lowe, Gügel &amp; Kreutz est rejeté par la Base de données des plantes d'Afrique au profit de Ophrys flammeola P. Delforge, également présente en Sicile.
+Ophrys obaesa Lojac. est rejetée au profit de Ophrys funerea Viv., présente également en Corse.
+Plantago tunetana Murb. est une endémique tuniso-algérienne selon Pierre Quézel et Sébastien Santa.
 Polygala rupestris var. oxycoccoides (Desf.) Chodat = Polygala rupestris subsp. oxycoccoides (Desf.) Chodat n'est plus considérée comme présente en Tunisie.
 Rosmarinus officinalis var. troglodytarum Maire &amp; Weiller et Sinapis pubescens var. brachyloba Coss. ne sont plus considérées comme des variétés. Rosmarinus officinalis et Sinapis pubescens sont largement répandues dans le bassin méditerranéen.
 Rupicapnos numidica subsp. caput-plataleae (Pomel) Maire est regroupé à Rupicapnos numidica subsp. delicatula (Pomel) Maire, une espèce saharienne.
-Serapias lingua subsp. tunetana B. Baumann &amp; H. Baumann est à ce jour validé par la Base de données des plantes d'Afrique[61] mais remis en cause par Le Floc'h, Boulos et Véla 2010 au profit de Serapias strictiflora Welwitsch ex Veiga, plante présente en France, au Portugal et en Afrique du Nord.
-Sixalix farinosa (Coss.) Greuter &amp; Burdet = Scabiosa farinosa Coss. est également présente en Algérie[62].</t>
+Serapias lingua subsp. tunetana B. Baumann &amp; H. Baumann est à ce jour validé par la Base de données des plantes d'Afrique mais remis en cause par Le Floc'h, Boulos et Véla 2010 au profit de Serapias strictiflora Welwitsch ex Veiga, plante présente en France, au Portugal et en Afrique du Nord.
+Sixalix farinosa (Coss.) Greuter &amp; Burdet = Scabiosa farinosa Coss. est également présente en Algérie.</t>
         </is>
       </c>
     </row>
@@ -747,7 +767,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Tunisie</t>
+          <t>Liste_de_plantes_endémiques_de_Tunisie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -765,9 +785,11 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flore vasculaire tunisienne comporterait 2 162 espèces[63]. Le taux d'endémisme est donc de 1,8 %, ce qui est très faible au regard des autres pays du Maghreb : Maroc (17 %), Algérie (8 %), Libye (7,3 %) et Égypte (3,5 %)[64]. L'absence de hautes montagnes en Tunisie, qui favorisent l'endémisme en Algérie et au Maroc, en serait la raison[65].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore vasculaire tunisienne comporterait 2 162 espèces. Le taux d'endémisme est donc de 1,8 %, ce qui est très faible au regard des autres pays du Maghreb : Maroc (17 %), Algérie (8 %), Libye (7,3 %) et Égypte (3,5 %). L'absence de hautes montagnes en Tunisie, qui favorisent l'endémisme en Algérie et au Maroc, en serait la raison.
 Une espèce est en danger critique d'extinction selon l'UICN et une sous-espèce semble avoir disparu.
 </t>
         </is>
